--- a/biology/Zoologie/Caudipteridae/Caudipteridae.xlsx
+++ b/biology/Zoologie/Caudipteridae/Caudipteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caudipteridae (souvent mal orthographié « Caudipterygidae ») forment une famille éteinte de dinosaures oviraptorosauriens ayant vécu au Crétacé inférieur dans la province du Liaoning en Chine.
-Le premier genre à être inséré dans la famille est Caudipteryx zoui qui a été nommé en 1998 par Ji Qiang et al.[1]. Il a été découvert dans la formation géologique de Jiufotang. Cette formation est datée du Crétacé inférieur (Aptien inférieur), il y a environ 120 Ma (millions d'années)[2].
+Le premier genre à être inséré dans la famille est Caudipteryx zoui qui a été nommé en 1998 par Ji Qiang et al.. Il a été découvert dans la formation géologique de Jiufotang. Cette formation est datée du Crétacé inférieur (Aptien inférieur), il y a environ 120 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,10 +552,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Caudipteridae a été érigée à la suite de la description de la seconde espèce identifiée de Caudipteryx : C. dongi en 2000[3]. Auparavant, elle se limitait au genre Caudipteryx. 
-Cependant, en 2008, le genre Similicaudipteryx a également été classé parmi les Caudipteridae[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Caudipteridae a été érigée à la suite de la description de la seconde espèce identifiée de Caudipteryx : C. dongi en 2000. Auparavant, elle se limitait au genre Caudipteryx. 
+Cependant, en 2008, le genre Similicaudipteryx a également été classé parmi les Caudipteridae.
 </t>
         </is>
       </c>
